--- a/М6_Урок2_ДЗ.xlsx
+++ b/М6_Урок2_ДЗ.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="144">
   <si>
     <t>passed</t>
   </si>
@@ -1282,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1449,9 +1449,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1506,6 +1503,30 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1515,30 +1536,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1560,7 +1557,7 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1901,7 +1898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2173,43 +2170,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="86" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="84"/>
+      <c r="J6" s="91"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="90" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="83" t="s">
+      <c r="N6" s="90" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="83"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="83"/>
+      <c r="R6" s="90"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="83"/>
+      <c r="T6" s="90"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2219,29 +2216,29 @@
     </row>
     <row r="7" spans="1:124" ht="53.25" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="83"/>
+      <c r="L7" s="90"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="83"/>
+      <c r="N7" s="90"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="83"/>
+      <c r="P7" s="90"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="83"/>
+      <c r="R7" s="90"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="83"/>
+      <c r="T7" s="90"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -3917,12 +3914,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3930,6 +3921,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
@@ -3949,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3990,7 +3987,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="45">
         <f>COUNTIF(J$8:J$47,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="45">
@@ -4028,7 +4025,7 @@
       <c r="I2" s="44"/>
       <c r="J2" s="47">
         <f>COUNTIF(J$8:J$47,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="47">
@@ -4128,90 +4125,92 @@
       <c r="S5" s="44"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97" t="s">
+      <c r="E6" s="95"/>
+      <c r="F6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="93" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="51"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="100" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="44"/>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="100" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="44"/>
-      <c r="N6" s="93"/>
+      <c r="N6" s="100"/>
       <c r="O6" s="44"/>
-      <c r="P6" s="93"/>
+      <c r="P6" s="100"/>
       <c r="Q6" s="44"/>
-      <c r="R6" s="93"/>
+      <c r="R6" s="100"/>
       <c r="S6" s="44"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="52" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="95"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="93"/>
+      <c r="J7" s="100"/>
       <c r="K7" s="44"/>
-      <c r="L7" s="93"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="44"/>
-      <c r="N7" s="93"/>
+      <c r="N7" s="100"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="93"/>
+      <c r="P7" s="100"/>
       <c r="Q7" s="44"/>
-      <c r="R7" s="93"/>
+      <c r="R7" s="100"/>
       <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:19" ht="60">
       <c r="A8" s="53">
         <v>1</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
       <c r="H8" s="55"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="J8" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="K8" s="44"/>
       <c r="L8" s="57"/>
       <c r="M8" s="44"/>
@@ -4226,21 +4225,23 @@
       <c r="A9" s="53">
         <v>2</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="54"/>
       <c r="H9" s="55"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="K9" s="44"/>
       <c r="L9" s="57"/>
       <c r="M9" s="44"/>
@@ -4255,21 +4256,23 @@
       <c r="A10" s="53">
         <v>3</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="54"/>
       <c r="H10" s="55"/>
       <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="J10" s="57" t="s">
+        <v>0</v>
+      </c>
       <c r="K10" s="44"/>
       <c r="L10" s="57"/>
       <c r="M10" s="44"/>
@@ -4284,43 +4287,45 @@
       <c r="A11" s="58">
         <v>4</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="65" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="60"/>
       <c r="H11" s="61"/>
       <c r="I11" s="56"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65"/>
+      <c r="J11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:19" ht="324">
       <c r="A12" s="53">
         <v>5</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="53"/>
@@ -4342,14 +4347,14 @@
       <c r="A13" s="53">
         <v>6</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="53"/>
@@ -4371,14 +4376,14 @@
       <c r="A14" s="53">
         <v>7</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="66" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="65" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="53"/>
@@ -4400,14 +4405,14 @@
       <c r="A15" s="53">
         <v>8</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="65"/>
+      <c r="C15" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="53"/>
@@ -4426,17 +4431,17 @@
       <c r="S15" s="44"/>
     </row>
     <row r="16" spans="1:19" ht="60">
-      <c r="A16" s="66">
+      <c r="A16" s="65">
         <v>9</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="65" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="53"/>
@@ -4455,19 +4460,19 @@
       <c r="S16" s="44"/>
     </row>
     <row r="17" spans="1:19" ht="48">
-      <c r="A17" s="66">
+      <c r="A17" s="65">
         <v>10</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="65" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="53"/>
@@ -4489,14 +4494,14 @@
       <c r="A18" s="53">
         <v>11</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="65" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="53"/>
@@ -4515,17 +4520,17 @@
       <c r="S18" s="44"/>
     </row>
     <row r="19" spans="1:19" ht="156">
-      <c r="A19" s="66">
+      <c r="A19" s="65">
         <v>12</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="65" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="53"/>
@@ -4547,43 +4552,43 @@
       <c r="A20" s="53">
         <v>13</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="66" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="81"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="44"/>
-      <c r="N20" s="81"/>
+      <c r="N20" s="80"/>
       <c r="O20" s="44"/>
-      <c r="P20" s="81"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="44"/>
-      <c r="R20" s="81"/>
+      <c r="R20" s="80"/>
       <c r="S20" s="44"/>
     </row>
     <row r="21" spans="1:19" ht="108">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <v>14</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="65" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="53"/>
@@ -4605,14 +4610,14 @@
       <c r="A22" s="53">
         <v>15</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="65" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="53"/>
@@ -4631,17 +4636,17 @@
       <c r="S22" s="44"/>
     </row>
     <row r="23" spans="1:19" ht="120">
-      <c r="A23" s="66">
+      <c r="A23" s="65">
         <v>16</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="65" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="53"/>
@@ -4663,14 +4668,14 @@
       <c r="A24" s="53">
         <v>17</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="65" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="53"/>
@@ -4689,135 +4694,135 @@
       <c r="S24" s="44"/>
     </row>
     <row r="25" spans="1:19" ht="204">
-      <c r="A25" s="66">
+      <c r="A25" s="65">
         <v>18</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="44"/>
-      <c r="L25" s="81"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="81"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="44"/>
-      <c r="P25" s="81"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="44"/>
-      <c r="R25" s="81"/>
+      <c r="R25" s="80"/>
       <c r="S25" s="44"/>
     </row>
     <row r="26" spans="1:19" ht="192">
       <c r="A26" s="53">
         <v>19</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="44"/>
-      <c r="L26" s="81"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="44"/>
-      <c r="N26" s="81"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="44"/>
-      <c r="P26" s="81"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="44"/>
-      <c r="R26" s="81"/>
+      <c r="R26" s="80"/>
       <c r="S26" s="44"/>
     </row>
     <row r="27" spans="1:19" ht="228">
-      <c r="A27" s="66">
+      <c r="A27" s="65">
         <v>20</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="81"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="81"/>
+      <c r="N27" s="80"/>
       <c r="O27" s="44"/>
-      <c r="P27" s="81"/>
+      <c r="P27" s="80"/>
       <c r="Q27" s="44"/>
-      <c r="R27" s="81"/>
+      <c r="R27" s="80"/>
       <c r="S27" s="44"/>
     </row>
     <row r="28" spans="1:19" ht="204">
       <c r="A28" s="53">
         <v>21</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
       <c r="K28" s="44"/>
-      <c r="L28" s="81"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="44"/>
-      <c r="N28" s="81"/>
+      <c r="N28" s="80"/>
       <c r="O28" s="44"/>
-      <c r="P28" s="81"/>
+      <c r="P28" s="80"/>
       <c r="Q28" s="44"/>
-      <c r="R28" s="81"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="44"/>
     </row>
     <row r="29" spans="1:19" ht="60">
-      <c r="A29" s="66">
+      <c r="A29" s="65">
         <v>22</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>131</v>
       </c>
       <c r="F29" s="53"/>
@@ -4839,99 +4844,99 @@
       <c r="A30" s="53">
         <v>23</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="81"/>
+      <c r="L30" s="80"/>
       <c r="M30" s="44"/>
-      <c r="N30" s="81"/>
+      <c r="N30" s="80"/>
       <c r="O30" s="44"/>
-      <c r="P30" s="81"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="44"/>
-      <c r="R30" s="81"/>
+      <c r="R30" s="80"/>
       <c r="S30" s="44"/>
     </row>
     <row r="31" spans="1:19" ht="120">
-      <c r="A31" s="77"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="66" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="81"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="81"/>
+      <c r="L31" s="80"/>
       <c r="M31" s="44"/>
-      <c r="N31" s="81"/>
+      <c r="N31" s="80"/>
       <c r="O31" s="44"/>
-      <c r="P31" s="81"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="44"/>
-      <c r="R31" s="81"/>
+      <c r="R31" s="80"/>
       <c r="S31" s="44"/>
     </row>
     <row r="32" spans="1:19" ht="84">
       <c r="A32" s="53">
         <v>25</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="81"/>
+      <c r="L32" s="80"/>
       <c r="M32" s="44"/>
-      <c r="N32" s="81"/>
+      <c r="N32" s="80"/>
       <c r="O32" s="44"/>
-      <c r="P32" s="81"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="44"/>
-      <c r="R32" s="81"/>
+      <c r="R32" s="80"/>
       <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:19" ht="204">
-      <c r="A33" s="66">
+      <c r="A33" s="65">
         <v>26</v>
       </c>
       <c r="B33" s="53"/>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="65" t="s">
         <v>117</v>
       </c>
       <c r="F33" s="53"/>
@@ -4954,13 +4959,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="53"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>124</v>
       </c>
       <c r="F34" s="53"/>
@@ -4983,13 +4988,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="53"/>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="53"/>
@@ -5008,17 +5013,17 @@
       <c r="S35" s="44"/>
     </row>
     <row r="36" spans="1:19" ht="60">
-      <c r="A36" s="66">
+      <c r="A36" s="65">
         <v>30</v>
       </c>
       <c r="B36" s="53"/>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="65" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="53"/>
@@ -5041,13 +5046,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="53"/>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="65" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="53"/>
@@ -5066,17 +5071,17 @@
       <c r="S37" s="44"/>
     </row>
     <row r="38" spans="1:19" ht="144">
-      <c r="A38" s="66">
+      <c r="A38" s="65">
         <v>32</v>
       </c>
       <c r="B38" s="53"/>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="65" t="s">
         <v>130</v>
       </c>
       <c r="F38" s="53"/>
@@ -5099,13 +5104,13 @@
         <v>33</v>
       </c>
       <c r="B39" s="53"/>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="65" t="s">
         <v>126</v>
       </c>
       <c r="F39" s="53"/>
@@ -5124,17 +5129,17 @@
       <c r="S39" s="44"/>
     </row>
     <row r="40" spans="1:19" ht="120">
-      <c r="A40" s="66">
+      <c r="A40" s="65">
         <v>34</v>
       </c>
       <c r="B40" s="53"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="65" t="s">
         <v>141</v>
       </c>
       <c r="F40" s="53"/>
@@ -5157,9 +5162,9 @@
         <v>35</v>
       </c>
       <c r="B41" s="53"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="53"/>
       <c r="G41" s="54"/>
       <c r="H41" s="55"/>
@@ -5176,13 +5181,13 @@
       <c r="S41" s="44"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="66">
+      <c r="A42" s="65">
         <v>36</v>
       </c>
       <c r="B42" s="53"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="53"/>
       <c r="G42" s="54"/>
       <c r="H42" s="55"/>
@@ -5222,7 +5227,7 @@
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="66">
+      <c r="A44" s="65">
         <v>38</v>
       </c>
       <c r="B44" s="53"/>
@@ -5268,7 +5273,7 @@
       <c r="S45" s="44"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1">
-      <c r="A46" s="66">
+      <c r="A46" s="65">
         <v>40</v>
       </c>
       <c r="B46" s="53"/>
@@ -5294,14 +5299,14 @@
       <c r="A47" s="53">
         <v>41</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="57"/>
       <c r="K47" s="44"/>
       <c r="L47" s="57"/>
@@ -5314,247 +5319,252 @@
       <c r="S47" s="44"/>
     </row>
     <row r="48" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="69">
         <f>COUNT(H8:H47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
     </row>
     <row r="49" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="69">
         <f>COUNTA(C8:C47)</f>
         <v>33</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
     </row>
     <row r="50" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="69">
         <f>COUNT(I8:I47)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
+      <c r="R55" s="70"/>
+      <c r="S55" s="70"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="70"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="70"/>
+      <c r="S56" s="70"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="70"/>
+      <c r="R60" s="70"/>
+      <c r="S60" s="70"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="S63" s="71"/>
+      <c r="S63" s="70"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="S64" s="71"/>
+      <c r="S64" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -5562,18 +5572,13 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="R11 L11 N11 P11">
       <formula1>Result</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N12:N47 P12:P47 J12:J47 L12:L47 L8:L10 J8:J10 P8:P10 N8:N10 R8:R10 R12:R47">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N12:N47 P12:P47 L12:L47 L8:L10 J8:J47 P8:P10 N8:N10 R8:R10 R12:R47">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
